--- a/api_backend/resources/estate_customer_info_import_template.xlsx
+++ b/api_backend/resources/estate_customer_info_import_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.chiu\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\alexchiu\mine\o2ownm-estate-catalogue\api_backend\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -82,6 +82,12 @@
   <si>
     <t>喜好房型選項有 1, 2, 3, 4, 5；可複選，以逗號分隔
 客戶標籤可複選，以逗號分隔，需存在於資料庫才會有紀錄</t>
+  </si>
+  <si>
+    <t>坪數需求</t>
+  </si>
+  <si>
+    <t>30-40, 200.25, 300-349.5</t>
   </si>
 </sst>
 </file>
@@ -192,13 +198,13 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -482,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,11 +504,13 @@
     <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,17 +532,20 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -557,141 +568,144 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>45770</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K2:Q15"/>
+    <mergeCell ref="L2:R15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/api_backend/resources/estate_customer_info_import_template.xlsx
+++ b/api_backend/resources/estate_customer_info_import_template.xlsx
@@ -80,14 +80,80 @@
     <t>說明</t>
   </si>
   <si>
-    <t>喜好房型選項有 1, 2, 3, 4, 5；可複選，以逗號分隔
-客戶標籤可複選，以逗號分隔，需存在於資料庫才會有紀錄</t>
-  </si>
-  <si>
     <t>坪數需求</t>
   </si>
   <si>
     <t>30-40, 200.25, 300-349.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>喜好房型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+  選項有 1, 2, 3, 4, 5；可複選，以逗號分隔
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">客戶標籤:
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">可複選，以逗號分隔，需存在於資料庫才會有紀錄
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坪數需求:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  可輸入範圍或一個數字，以逗點分隔，如 20-30, 37, 50-60</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -492,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:R15"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -568,7 +634,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>16</v>
@@ -577,7 +643,7 @@
         <v>45770</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/api_backend/resources/estate_customer_info_import_template.xlsx
+++ b/api_backend/resources/estate_customer_info_import_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>姓名</t>
   </si>
@@ -77,97 +77,17 @@
     <t>超屌, 帥, 巨富</t>
   </si>
   <si>
-    <t>說明</t>
-  </si>
-  <si>
     <t>坪數需求</t>
   </si>
   <si>
     <t>30-40, 200.25, 300-349.5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>喜好房型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-  選項有 1, 2, 3, 4, 5；可複選，以逗號分隔
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">客戶標籤:
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">可複選，以逗號分隔，需存在於資料庫才會有紀錄
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>坪數需求:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  可輸入範圍或一個數字，以逗點分隔，如 20-30, 37, 50-60</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +104,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -200,20 +112,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -230,53 +137,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,6 +173,238 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11431</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13127356" y="9525"/>
+          <a:ext cx="4284344" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>說明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>喜好房型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選項有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1, 2, 3, 4, 5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>；可複選，以逗號分隔</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客戶標籤</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可複選，以逗號分隔，需存在於資料庫才會有紀錄</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>坪數需求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可輸入範圍或一個數字，以逗點分隔，如 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20-30, 37, 50-60</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,10 +689,12 @@
     <col min="8" max="8" width="23.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="9.140625" style="7" customWidth="1"/>
+    <col min="13" max="19" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -599,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -607,11 +725,8 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -634,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>16</v>
@@ -642,141 +757,13 @@
       <c r="J2" s="6">
         <v>45770</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L2:R15"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/api_backend/resources/estate_customer_info_import_template.xlsx
+++ b/api_backend/resources/estate_customer_info_import_template.xlsx
@@ -143,11 +143,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -180,15 +177,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11431</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -197,7 +194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13127356" y="9525"/>
+          <a:off x="13146406" y="257175"/>
           <a:ext cx="4284344" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -674,87 +671,87 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="12" max="12" width="9.140625" style="7" customWidth="1"/>
-    <col min="13" max="19" width="9.140625" style="7"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="9.140625" style="6" customWidth="1"/>
+    <col min="13" max="19" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>45770</v>
       </c>
     </row>
